--- a/biology/Biologie cellulaire et moléculaire/Neuropiline_1/Neuropiline_1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Neuropiline_1/Neuropiline_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La neuropiline 1 est une protéine transmembranaire. Il s'agit de l'une des deux neuropilines humaines. Son gène est le NRP1 situé sur le chromosome 10 humain.
@@ -512,10 +524,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il interagit avec les sémaphorines de classe 3 (dont le SEMA3A) et VEGF. Il intervient également dans l'immunité cellulaire[3] ainsi que dans l'embryogenèse du système cardiovasculaire[4] (dont la séparation entre cœur droit et cœur gauche[5]) et neurologique[6].
-Une étude de novembre 2020 révèle que la neuropiline 1 est un récepteur auquel se lie le péplomère du coronavirus SARS-CoV-2 responsable de la Covid-19[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il interagit avec les sémaphorines de classe 3 (dont le SEMA3A) et VEGF. Il intervient également dans l'immunité cellulaire ainsi que dans l'embryogenèse du système cardiovasculaire (dont la séparation entre cœur droit et cœur gauche) et neurologique.
+Une étude de novembre 2020 révèle que la neuropiline 1 est un récepteur auquel se lie le péplomère du coronavirus SARS-CoV-2 responsable de la Covid-19.
 </t>
         </is>
       </c>
